--- a/medicine/Médecine vétérinaire/Spilopsyllus_cuniculi/Spilopsyllus_cuniculi.xlsx
+++ b/medicine/Médecine vétérinaire/Spilopsyllus_cuniculi/Spilopsyllus_cuniculi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Puce du lapin
 Spilopsyllus cuniculi, communément appelé Puce du lapin, est une espèce de puces de la famille des Pulicidae. Elle parasite les lapins, mais peut aussi être retrouvée chez le renard, l'un de ses prédateurs.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Spilopsyllus cuniculi mesure jusqu'à deux millimètres de long.
 </t>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles William Dale, The history of Glanville's Wootton, in the County of dorset, including its zoology and botany,  (publication), Inconnu, Londres, 1878
 </t>
